--- a/data/trans_dic/P04D$aparatos-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5433939196799381</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7471924548118531</v>
+        <v>0.747192454811853</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.6912081520574398</v>
@@ -664,7 +664,7 @@
         <v>0.5501725299301314</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7378641863154749</v>
+        <v>0.737864186315475</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6489932959331598</v>
+        <v>0.6471265738381429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5084229585896219</v>
+        <v>0.5024683734079044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7047744291191282</v>
+        <v>0.7102070244791858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6569215816359646</v>
+        <v>0.6548146142330764</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5214506267240369</v>
+        <v>0.5164058003149243</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7005364206793906</v>
+        <v>0.6967063575908902</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6614543108284353</v>
+        <v>0.6643437546586609</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5224279469082728</v>
+        <v>0.5217055062162037</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7144657414393994</v>
+        <v>0.7131288461661964</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7187934812433535</v>
+        <v>0.7205263217140766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5874889793428938</v>
+        <v>0.5808309459645434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7798991562755284</v>
+        <v>0.7831717826290806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7272408571965693</v>
+        <v>0.7248634108263201</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5963072145317972</v>
+        <v>0.5979004236118305</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7556942615860067</v>
+        <v>0.753883264505946</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7135170612546208</v>
+        <v>0.7126552786081234</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5773915117149178</v>
+        <v>0.5754976755345816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7606734134422187</v>
+        <v>0.7616735637445162</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.629634802690891</v>
+        <v>0.6292204585210303</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5332569483401204</v>
+        <v>0.5316654342762416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6119364828249004</v>
+        <v>0.6128350360667753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.652609698724911</v>
+        <v>0.654261803285386</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5317826243510303</v>
+        <v>0.535447262541246</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6701694113236843</v>
+        <v>0.6684037214614358</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6510215120446361</v>
+        <v>0.6512566235303553</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5436129169798041</v>
+        <v>0.5434596803689355</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6504507211646341</v>
+        <v>0.6477686120054194</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.690441724682725</v>
+        <v>0.6936462984262127</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5993904522014352</v>
+        <v>0.5956285454632674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6811326228287959</v>
+        <v>0.6823304511406021</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7145901093528606</v>
+        <v>0.7122756873074829</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5984929960514573</v>
+        <v>0.5991078297067616</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7198087829854334</v>
+        <v>0.7196391506912382</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6925436600018705</v>
+        <v>0.6943821996996522</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5897756215717703</v>
+        <v>0.5890414217303945</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6911727899046634</v>
+        <v>0.6917479333142994</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.421274204331083</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6298334656346117</v>
+        <v>0.6298334656346116</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6311773202508594</v>
+        <v>0.6318448096113941</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3968657002169203</v>
+        <v>0.3912833979829178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5881177428327954</v>
+        <v>0.5835768664007759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6855616770327386</v>
+        <v>0.6858120342550558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3790827819284039</v>
+        <v>0.3755798402431934</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5967275526626038</v>
+        <v>0.5988360020918903</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6698183847625202</v>
+        <v>0.6704336981455868</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3950862291750519</v>
+        <v>0.3958481907285792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6049506715401826</v>
+        <v>0.6009958913169658</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7044019621654405</v>
+        <v>0.7026486493493858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4673053962312851</v>
+        <v>0.4650984784745389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6660761916761342</v>
+        <v>0.6635285735574382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7526373266652234</v>
+        <v>0.7478022511936498</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4470101863325847</v>
+        <v>0.4502084298791193</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6628412460989124</v>
+        <v>0.6615865661557752</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7195989742538468</v>
+        <v>0.7192876766942735</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4468540474925856</v>
+        <v>0.4497581099845713</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6576160427255756</v>
+        <v>0.6511053726768696</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.5406496503856301</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.5687528781298345</v>
+        <v>0.5687528781298347</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.536856549923389</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.496796232283748</v>
+        <v>0.4987456993143005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5312813651642841</v>
+        <v>0.5288752856127139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5309901082298044</v>
+        <v>0.5289467735870174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5068544474067097</v>
+        <v>0.5082935636628406</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5085112963085012</v>
+        <v>0.5087340404754077</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5420541401594032</v>
+        <v>0.5416443228430291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5126167920067869</v>
+        <v>0.5141653611779292</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5295869137028121</v>
+        <v>0.5263654820929203</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.54834639421348</v>
+        <v>0.5470594750634024</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5651210942665188</v>
+        <v>0.5640791292191798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5961946746693794</v>
+        <v>0.5974762933697652</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5986920472570526</v>
+        <v>0.6003241153691733</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5698211524279249</v>
+        <v>0.5719395678424956</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5743668819742767</v>
+        <v>0.5745593448548789</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5954160154082299</v>
+        <v>0.5948799702776146</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5586277529494661</v>
+        <v>0.559516277544219</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5751222211093105</v>
+        <v>0.5755899733148121</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5889426876205226</v>
+        <v>0.5889757715563065</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5304533200093672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6505296478309722</v>
@@ -1100,7 +1100,7 @@
         <v>0.5266603652025651</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>454753</v>
+        <v>453445</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>343084</v>
+        <v>339066</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>485267</v>
+        <v>489007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>457168</v>
+        <v>455702</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>350852</v>
+        <v>347458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>513850</v>
+        <v>511041</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>923807</v>
+        <v>927842</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>704044</v>
+        <v>703071</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1016007</v>
+        <v>1014106</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>503662</v>
+        <v>504876</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>396438</v>
+        <v>391945</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>536993</v>
+        <v>539247</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>506105</v>
+        <v>504451</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>401219</v>
+        <v>402291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>554309</v>
+        <v>552981</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>996519</v>
+        <v>995316</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>778115</v>
+        <v>775563</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1081717</v>
+        <v>1083139</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>638805</v>
+        <v>638384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>545218</v>
+        <v>543591</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>641164</v>
+        <v>642106</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>672249</v>
+        <v>673951</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>554603</v>
+        <v>558425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>715733</v>
+        <v>713847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1331116</v>
+        <v>1331596</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1122748</v>
+        <v>1122431</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1376192</v>
+        <v>1370517</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>700497</v>
+        <v>703749</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>612835</v>
+        <v>608989</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>713666</v>
+        <v>714921</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>736095</v>
+        <v>733711</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>624176</v>
+        <v>624817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>768747</v>
+        <v>768566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1416014</v>
+        <v>1419773</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1218090</v>
+        <v>1216573</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1462350</v>
+        <v>1463566</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>477597</v>
+        <v>478102</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>301440</v>
+        <v>297200</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>469174</v>
+        <v>465551</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>532121</v>
+        <v>532315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>297584</v>
+        <v>294834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>483441</v>
+        <v>485149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1026736</v>
+        <v>1027680</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>610236</v>
+        <v>611412</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>972706</v>
+        <v>966347</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>533004</v>
+        <v>531677</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>354943</v>
+        <v>353266</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>531366</v>
+        <v>529333</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>584184</v>
+        <v>580431</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>350908</v>
+        <v>353419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>537003</v>
+        <v>535986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1103043</v>
+        <v>1102566</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>690194</v>
+        <v>694680</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1057387</v>
+        <v>1046918</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>470833</v>
+        <v>472681</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>498112</v>
+        <v>495856</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>524576</v>
+        <v>522558</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>533161</v>
+        <v>534675</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>530773</v>
+        <v>531006</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>604928</v>
+        <v>604470</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1025049</v>
+        <v>1028146</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1049295</v>
+        <v>1042912</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1153673</v>
+        <v>1150965</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>535587</v>
+        <v>534600</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>558972</v>
+        <v>560174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>591460</v>
+        <v>593073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>599395</v>
+        <v>601624</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>599512</v>
+        <v>599713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>664479</v>
+        <v>663881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1117054</v>
+        <v>1118831</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1139516</v>
+        <v>1140443</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1239084</v>
+        <v>1239153</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
     </row>
     <row r="24">
